--- a/classfiers/mega/MLP/mega-mlp-results.xlsx
+++ b/classfiers/mega/MLP/mega-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.5595238095238095</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9950450450450451</v>
+        <v>0.9855510752688172</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9966216216216216</v>
+        <v>0.995967741935484</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.9195402298850576</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7848101265822784</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9741230592294421</v>
+        <v>0.9772363303591854</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8482385347210929</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8642730496453901</v>
+        <v>0.8474290780141842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.817887099230387</v>
+        <v>0.8518878439568095</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9931579451792217</v>
+        <v>0.9917510295126973</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/MLP/mega-mlp-results.xlsx
+++ b/classfiers/mega/MLP/mega-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.712121212121212</v>
+        <v>0.6466165413533834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9855510752688172</v>
+        <v>0.9835933297471759</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.875</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.995967741935484</v>
+        <v>0.9962345346960731</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9195402298850576</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9772363303591854</v>
+        <v>0.9933947984037429</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.8874325961469939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8474290780141842</v>
+        <v>0.8654334038054967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8518878439568095</v>
+        <v>0.8445218453657655</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9917510295126973</v>
+        <v>0.9946445325693984</v>
       </c>
     </row>
   </sheetData>
